--- a/DataTest/caseData.xlsx
+++ b/DataTest/caseData.xlsx
@@ -1,27 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myjava\github\apiAutoTest\caseData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351B90DC-648E-4841-AB84-F7501B17CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="635" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23595" windowHeight="12690" tabRatio="635"/>
   </bookViews>
   <sheets>
-    <sheet name="v4_scenesCase" sheetId="11" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
     <sheet name="variables" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -29,201 +18,155 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>CaseId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApiName</t>
   </si>
   <si>
     <t>Describe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>RequestType</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Cookies</t>
   </si>
   <si>
     <t>Parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadFile</t>
+  </si>
+  <si>
+    <t>InitSql</t>
+  </si>
+  <si>
+    <t>GlobalVariables</t>
+  </si>
+  <si>
+    <t>AssertFields</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>用户名为空</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json"}</t>
+  </si>
+  <si>
+    <t>{"username":"", "password":"#{password_correct}"}</t>
+  </si>
+  <si>
+    <t>$.code=9400;</t>
+  </si>
+  <si>
+    <t>密码为空</t>
+  </si>
+  <si>
+    <t>{"username":"#{username}", "password":""}</t>
   </si>
   <si>
     <t>错误的用户名、密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApiName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitSql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UploadFile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cookies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username":"#{username}", "password":"#{password_wrong}"}</t>
+  </si>
+  <si>
+    <t>$.code=9410;</t>
+  </si>
+  <si>
+    <t>正确的用户名、密码【传json】</t>
+  </si>
+  <si>
+    <t>{"username":"#{username}", "password":"#{password_correct}"}</t>
+  </si>
+  <si>
+    <t>token=$.token;</t>
+  </si>
+  <si>
+    <t>$.code=9420;</t>
+  </si>
+  <si>
+    <t>addUser</t>
+  </si>
+  <si>
+    <t>添加用户</t>
+  </si>
+  <si>
+    <t>/addUser</t>
+  </si>
+  <si>
+    <t>{"token":"${token}","adduser":"qzcsbj","data":{"username":"qzcsbj11","realname":"tester11","sex":"1","phone":"13800000011"}}</t>
+  </si>
+  <si>
+    <t>[{"sqlNo":"1","sql":"delete from users where username = 'qzcsbj11';"}]</t>
+  </si>
+  <si>
+    <t>$.code=9550;</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>#{username}</t>
   </si>
   <si>
     <t>qzcsbj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>#{password_correct}</t>
+  </si>
+  <si>
+    <t>正确的密码</t>
+  </si>
+  <si>
+    <t>#{password_wrong}</t>
   </si>
   <si>
     <t>1234567</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>错误的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的用户名、密码【传json】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{username}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{password_correct}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#{password_wrong}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"#{username}", "password":"#{password_correct}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"#{username}", "password":"#{password_wrong}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"", "password":"#{password_correct}"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username":"#{username}", "password":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"token":"${token}","adduser":"qzcsbj","data":{"username":"qzcsbj11","realname":"tester11","sex":"1","phone":"13800000011"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GlobalVariables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token=$.token;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssertFields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"sqlNo":"1","sql":"delete from users where username = 'qzcsbj11';"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.code=9550;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.code=9420;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/addUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.code=9400;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.code=9410;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -232,26 +175,348 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -259,37 +524,319 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -338,7 +885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -373,7 +920,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -547,299 +1094,295 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2585FDF-C9DE-4F2A-8EE8-46FE932E84AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="78" style="5" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.55833333333333" customWidth="1"/>
+    <col min="3" max="3" width="30.1083333333333" customWidth="1"/>
+    <col min="4" max="4" width="31.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.1083333333333" customWidth="1"/>
+    <col min="6" max="6" width="33.775" customWidth="1"/>
+    <col min="7" max="7" width="8.10833333333333" customWidth="1"/>
+    <col min="8" max="8" width="58.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="26.775" customWidth="1"/>
+    <col min="10" max="10" width="78" style="2" customWidth="1"/>
+    <col min="11" max="11" width="33.5583333333333" customWidth="1"/>
+    <col min="12" max="12" width="21.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J2"/>
-      <c r="L2" s="3" t="s">
-        <v>43</v>
+      <c r="L2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J3"/>
-      <c r="L3" s="3" t="s">
-        <v>43</v>
+      <c r="L3" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4"/>
+      <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4"/>
-      <c r="L4" s="3" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" ht="28.5" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3"/>
+    <row r="7" spans="4:9">
+      <c r="D7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
+    <row r="8" spans="4:4">
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://127.0.0.1:9999/login" xr:uid="{D7504A5B-39AF-412F-A500-201445E01480}"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://127.0.0.1:9999/addUser" xr:uid="{7F551F86-E6A8-4617-9086-A828A87AA12E}"/>
-    <hyperlink ref="D4" r:id="rId3" display="http://127.0.0.1:9999/login" xr:uid="{5CA9991F-B744-4A8E-8C6C-4399FA0F8578}"/>
-    <hyperlink ref="D2" r:id="rId4" display="http://127.0.0.1:9999/login" xr:uid="{07D67341-DF16-4DF7-9214-F8F0D0736336}"/>
-    <hyperlink ref="D3" r:id="rId5" display="http://127.0.0.1:9999/login" xr:uid="{0318803B-618D-43D1-8C1B-EC7B5FB03FC5}"/>
+    <hyperlink ref="D5" r:id="rId1" display="/login"/>
+    <hyperlink ref="D6" r:id="rId2" display="/addUser"/>
+    <hyperlink ref="D4" r:id="rId1" display="/login"/>
+    <hyperlink ref="D2" r:id="rId1" display="/login"/>
+    <hyperlink ref="D3" r:id="rId1" display="/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCA9A31-A700-45B9-A8AB-182ADAF661DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="13.775" customWidth="1"/>
+    <col min="3" max="3" width="22.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
         <v>123456</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DataTest/caseData.xlsx
+++ b/DataTest/caseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23595" windowHeight="12690" tabRatio="635"/>
+    <workbookView windowWidth="27195" windowHeight="13140" tabRatio="635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>CaseId</t>
   </si>
@@ -95,9 +95,6 @@
     <t>{"username":"#{username}", "password":"#{password_correct}"}</t>
   </si>
   <si>
-    <t>token=$.token;</t>
-  </si>
-  <si>
     <t>$.code=9420;</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>{"token":"${token}","adduser":"qzcsbj","data":{"username":"qzcsbj11","realname":"tester11","sex":"1","phone":"13800000011"}}</t>
-  </si>
-  <si>
-    <t>[{"sqlNo":"1","sql":"delete from users where username = 'qzcsbj11';"}]</t>
   </si>
   <si>
     <t>$.code=9550;</t>
@@ -162,7 +156,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +168,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -625,46 +612,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,97 +664,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,8 +1089,8 @@
   <sheetPr/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1178,10 +1165,13 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="G2"/>
       <c r="H2" t="s">
         <v>17</v>
       </c>
+      <c r="I2"/>
       <c r="J2"/>
+      <c r="K2"/>
       <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1205,10 +1195,13 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
+      <c r="G3"/>
       <c r="H3" t="s">
         <v>20</v>
       </c>
+      <c r="I3"/>
       <c r="J3"/>
+      <c r="K3"/>
       <c r="L3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1232,10 +1225,13 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
+      <c r="G4"/>
       <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="I4"/>
       <c r="J4"/>
+      <c r="K4"/>
       <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1259,14 +1255,15 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
+      <c r="G5"/>
       <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:12">
@@ -1274,13 +1271,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -1288,15 +1285,15 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
+      <c r="G6"/>
       <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="4:9">
@@ -1339,46 +1336,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>123456</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
